--- a/docentes/Mendoza Velazquez Laura Elena - Estadisticos 20211.xlsx
+++ b/docentes/Mendoza Velazquez Laura Elena - Estadisticos 20211.xlsx
@@ -468,7 +468,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2">
-        <v>85.70999999999999</v>
+        <v>86.11</v>
       </c>
       <c r="H2">
         <v>8.1</v>
@@ -562,13 +562,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -650,7 +650,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -659,10 +659,10 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2">
-        <v>85.70999999999999</v>
+        <v>86.11</v>
       </c>
       <c r="H2">
         <v>8.1</v>

--- a/docentes/Mendoza Velazquez Laura Elena - Estadisticos 20211.xlsx
+++ b/docentes/Mendoza Velazquez Laura Elena - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>Mat</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>TINOCO</t>
+  </si>
+  <si>
+    <t>ANGELES NAHOMI</t>
   </si>
 </sst>
 </file>
@@ -701,7 +710,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -734,6 +743,29 @@
         <v>16</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
